--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H2">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N2">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q2">
-        <v>0.126085094096</v>
+        <v>0.1376840190208889</v>
       </c>
       <c r="R2">
-        <v>1.134765846864</v>
+        <v>1.239156171188</v>
       </c>
       <c r="S2">
-        <v>0.0002384684188560395</v>
+        <v>0.0003049253840852128</v>
       </c>
       <c r="T2">
-        <v>0.0002586893871717138</v>
+        <v>0.0003158789646725035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H3">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I3">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J3">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q3">
-        <v>4.20023941643511</v>
+        <v>4.047996596216445</v>
       </c>
       <c r="R3">
-        <v>37.80215474791599</v>
+        <v>36.431969365948</v>
       </c>
       <c r="S3">
-        <v>0.007944035412238875</v>
+        <v>0.00896499772199172</v>
       </c>
       <c r="T3">
-        <v>0.008617651185514295</v>
+        <v>0.009287039867834426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H4">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I4">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J4">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N4">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q4">
-        <v>0.1023687380328889</v>
+        <v>0.05742179858133334</v>
       </c>
       <c r="R4">
-        <v>0.9213186422959999</v>
+        <v>0.516796187232</v>
       </c>
       <c r="S4">
-        <v>0.000193612982359392</v>
+        <v>0.000127170633976194</v>
       </c>
       <c r="T4">
-        <v>0.0002100304266506461</v>
+        <v>0.0001317388787347406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H5">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I5">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J5">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N5">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q5">
-        <v>0.7315538723913334</v>
+        <v>0.3552941710153333</v>
       </c>
       <c r="R5">
-        <v>4.389323234348001</v>
+        <v>2.131765026092</v>
       </c>
       <c r="S5">
-        <v>0.001383609192727791</v>
+        <v>0.000786861193699257</v>
       </c>
       <c r="T5">
-        <v>0.001000621705993354</v>
+        <v>0.0005434179686337783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H6">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I6">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J6">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N6">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q6">
-        <v>0.08914549408844444</v>
+        <v>0.06565427081777779</v>
       </c>
       <c r="R6">
-        <v>0.8023094467959999</v>
+        <v>0.5908884373600001</v>
       </c>
       <c r="S6">
-        <v>0.0001686034751040898</v>
+        <v>0.0001454028861759778</v>
       </c>
       <c r="T6">
-        <v>0.00018290023416488</v>
+        <v>0.000150626072943886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J7">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N7">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O7">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P7">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q7">
-        <v>11.306332524112</v>
+        <v>12.81077635037911</v>
       </c>
       <c r="R7">
-        <v>101.756992717008</v>
+        <v>115.296987153412</v>
       </c>
       <c r="S7">
-        <v>0.02138399673186379</v>
+        <v>0.0283717088362772</v>
       </c>
       <c r="T7">
-        <v>0.02319725620853495</v>
+        <v>0.02939088210081086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I8">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J8">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N8">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O8">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P8">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q8">
         <v>376.6448672111835</v>
       </c>
       <c r="R8">
-        <v>3389.803804900651</v>
+        <v>3389.803804900652</v>
       </c>
       <c r="S8">
-        <v>0.7123594315257231</v>
+        <v>0.8341460513341765</v>
       </c>
       <c r="T8">
-        <v>0.7727640652434874</v>
+        <v>0.8641103851408557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I9">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J9">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N9">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O9">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P9">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q9">
-        <v>9.179633806612443</v>
+        <v>5.342797403018667</v>
       </c>
       <c r="R9">
-        <v>82.61670425951198</v>
+        <v>48.085176627168</v>
       </c>
       <c r="S9">
-        <v>0.01736170936965469</v>
+        <v>0.01183256097396297</v>
       </c>
       <c r="T9">
-        <v>0.0188338983360338</v>
+        <v>0.01225761220599196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I10">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J10">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N10">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O10">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P10">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q10">
-        <v>65.60007271169266</v>
+        <v>33.05826047088467</v>
       </c>
       <c r="R10">
-        <v>393.600436270156</v>
+        <v>198.349562825308</v>
       </c>
       <c r="S10">
-        <v>0.1240713323692944</v>
+        <v>0.07321331003378229</v>
       </c>
       <c r="T10">
-        <v>0.08972798743514607</v>
+        <v>0.05056219385844972</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I11">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J11">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N11">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O11">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P11">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q11">
-        <v>7.99387593289022</v>
+        <v>6.108785797182223</v>
       </c>
       <c r="R11">
-        <v>71.94488339601199</v>
+        <v>54.97907217464</v>
       </c>
       <c r="S11">
-        <v>0.0151190508911089</v>
+        <v>0.01352897648359231</v>
       </c>
       <c r="T11">
-        <v>0.01640107326748379</v>
+        <v>0.01401496663695775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H12">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I12">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J12">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N12">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O12">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P12">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q12">
-        <v>1.267109964318</v>
+        <v>0.3809277127183333</v>
       </c>
       <c r="R12">
-        <v>7.602659785908</v>
+        <v>2.28556627631</v>
       </c>
       <c r="S12">
-        <v>0.002396522062136702</v>
+        <v>0.0008436311631178988</v>
       </c>
       <c r="T12">
-        <v>0.001733157026470927</v>
+        <v>0.0005826241484630902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H13">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I13">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J13">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N13">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O13">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P13">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q13">
-        <v>42.21089935527116</v>
+        <v>11.19951389750167</v>
       </c>
       <c r="R13">
-        <v>253.265396131627</v>
+        <v>67.19708338501</v>
       </c>
       <c r="S13">
-        <v>0.0798347060761901</v>
+        <v>0.02480328582103099</v>
       </c>
       <c r="T13">
-        <v>0.0577362019646191</v>
+        <v>0.01712951573191859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H14">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I14">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J14">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N14">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O14">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P14">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q14">
-        <v>1.028769093810333</v>
+        <v>0.15886777964</v>
       </c>
       <c r="R14">
-        <v>6.172614562862</v>
+        <v>0.9532066778400001</v>
       </c>
       <c r="S14">
-        <v>0.001945741016635318</v>
+        <v>0.0003518405336362414</v>
       </c>
       <c r="T14">
-        <v>0.001407153628148751</v>
+        <v>0.0002429862720421657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H15">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I15">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J15">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N15">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O15">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P15">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q15">
-        <v>7.351853982332751</v>
+        <v>0.9829855118225</v>
       </c>
       <c r="R15">
-        <v>29.40741592933101</v>
+        <v>3.93194204729</v>
       </c>
       <c r="S15">
-        <v>0.01390477603555984</v>
+        <v>0.002176993647296135</v>
       </c>
       <c r="T15">
-        <v>0.006703926123689611</v>
+        <v>0.001002309323012535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H16">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I16">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J16">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N16">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O16">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P16">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q16">
-        <v>0.8958802358311666</v>
+        <v>0.1816444013666667</v>
       </c>
       <c r="R16">
-        <v>5.375281414987</v>
+        <v>1.0898664082</v>
       </c>
       <c r="S16">
-        <v>0.001694404440546884</v>
+        <v>0.0004022833531991548</v>
       </c>
       <c r="T16">
-        <v>0.001225387826890725</v>
+        <v>0.0002778228286782469</v>
       </c>
     </row>
   </sheetData>
